--- a/medicine/Enfance/Prix_européen_Utopiales_des_pays_de_la_Loire/Prix_européen_Utopiales_des_pays_de_la_Loire.xlsx
+++ b/medicine/Enfance/Prix_européen_Utopiales_des_pays_de_la_Loire/Prix_européen_Utopiales_des_pays_de_la_Loire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_europ%C3%A9en_Utopiales_des_pays_de_la_Loire</t>
+          <t>Prix_européen_Utopiales_des_pays_de_la_Loire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le prix européen Utopiales des pays de la Loire est un prix littéraire créé en 2007 et décerné lors du festival des Utopiales[1].
+Le prix européen Utopiales des pays de la Loire est un prix littéraire créé en 2007 et décerné lors du festival des Utopiales.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_europ%C3%A9en_Utopiales_des_pays_de_la_Loire</t>
+          <t>Prix_européen_Utopiales_des_pays_de_la_Loire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix est créé en 2007 pour la 8e édition des Utopiales[1], festival international de science-fiction qui se tient à Nantes, en France ; il bénéficie du soutien du conseil régional des Pays de la Loire. Depuis 2011, un second prix récompense un roman pour la jeunesse.
-Le prix récompense un roman ou un recueil de « littérature de l'imaginaire » paru en langue française durant la saison littéraire qui précède le festival (juin à mai) et dont l'auteur est européen. Il est doté de 2 000 euros depuis 2011 (3 000 euros sur les éditions précédentes[2]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix est créé en 2007 pour la 8e édition des Utopiales, festival international de science-fiction qui se tient à Nantes, en France ; il bénéficie du soutien du conseil régional des Pays de la Loire. Depuis 2011, un second prix récompense un roman pour la jeunesse.
+Le prix récompense un roman ou un recueil de « littérature de l'imaginaire » paru en langue française durant la saison littéraire qui précède le festival (juin à mai) et dont l'auteur est européen. Il est doté de 2 000 euros depuis 2011 (3 000 euros sur les éditions précédentes).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_europ%C3%A9en_Utopiales_des_pays_de_la_Loire</t>
+          <t>Prix_européen_Utopiales_des_pays_de_la_Loire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roman
-2007 : Alain Damasio, La Zone du Dehors
+          <t>Roman</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2007 : Alain Damasio, La Zone du Dehors
 Susanna Clarke, Jonathan Strange et Mr Norrell
 Jean-Marc Ligny, Aqua™
 Ian R. MacLeod, L'Âge des lumières (en)
@@ -604,7 +623,7 @@
 Jaroslav Melnik, Espace lointain
 Al Robertson, Station : la chute
 Karin Tidbeck, Amatka (en)
-2019 : Christian Léourier, Helstrid[3]
+2019 : Christian Léourier, Helstrid
 Jean Baret, Bonheur™ (Trilogie Trademark, tome 1)
 Laurent Genefort, Colonies
 China Miéville, Les Derniers Jours du Nouveau-Paris
@@ -614,23 +633,57 @@
 Alain Damasio, Les Furtifs
 Olivier Paquet, Les Machines fantômes
 Adrian Tchaikovsky, Chiens de guerre
-2021 : Auriane Velten, After®[4]
+2021 : Auriane Velten, After®
 Olivier Bruneau, Esther
 Jean Krug, Le Chant des glaces
 Camille Leboulanger, Ru
 Émilie Querbalec, Quitter les monts d'automne
-2022 : Floriane Soulas, Les Oubliés de l'Amas[5]
+2022 : Floriane Soulas, Les Oubliés de l'Amas
 Les Aggloméré·e·s, Subtil Béton
 Morgane Caussarieu, Vertèbres
 Romain Lucazeau, La Nuit du faune
 Michael Roch, Tè Mawon
-2023 : Audrey Pleynet, Rossignol [6]
+2023 : Audrey Pleynet, Rossignol 
 Élisa Beiram , Le Premier Jour de paix
 Claire Garand, Paideia
 Pierre Raufast, La Tragédie de l'orque
-Alastair Reynolds, Éversion
-Roman pour la jeunesse
-2011 : Jean-Claude Mourlevat, Terrienne
+Alastair Reynolds, Éversion</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_européen_Utopiales_des_pays_de_la_Loire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_europ%C3%A9en_Utopiales_des_pays_de_la_Loire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Palmarès</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Roman pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2011 : Jean-Claude Mourlevat, Terrienne
 Claire Gratias, Le Protocole de Nod (Le Signe de K1, tome 1)
 Hélène Vignal, La Fille sur la rive
 2012 : Moira Young (en), Saba, ange de la mort (en)
@@ -668,7 +721,7 @@
 Erik L'Homme, Nouvelle Sparte
 Éric Senabre, Star Trip
 Aurélie Wellenstein, La Mort du temps
-2019 : Maiwenn Alix, Déconnexion[3]
+2019 : Maiwenn Alix, Déconnexion
 Jean-Noël Blanc, Jeanne Benameur, Patrice Favaro, Gudule, Johan Heliot, Colin Thibert, Rêves scientifiques : 8 nouvelles de science-fiction
 Alice Broadway, Marqués
 Célia Flaux, Le Cirque interdit
@@ -678,12 +731,12 @@
 Antonio Da Silva, Sortie 32.b
 Jérôme Leroy, Le Grand Effondrement (Lou, après tout, tome 1)
 Nicky Singer, Survival Game
-2021 : H. Lenoir, Félicratie[4]
+2021 : H. Lenoir, Félicratie
 Alexis Brocas, La Honte de la galaxie
 Camille Brunel, Après nous, les animaux
 Michel Bussi, La Chute du soleil de fer (N.É.O., tome 1)
 Séverine Vidal, L'Été des Perséides
-2022 : Daniel Mat, Le Troisième Exode[5]
+2022 : Daniel Mat, Le Troisième Exode
 Kamel Benaouda, LX18
 Yves Grevet, Sable bleu
 Johan Heliot, Le Jardin des chimères
